--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2022/ifoCAst_error_tables_last_rep_first_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2022/ifoCAst_error_tables_last_rep_first_since_2022.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2104998623820129</v>
+        <v>0.2191535563547262</v>
       </c>
       <c r="C2">
-        <v>0.5374517587701991</v>
+        <v>0.5227517458580421</v>
       </c>
       <c r="D2">
-        <v>0.4181536390414849</v>
+        <v>0.3961421483377996</v>
       </c>
       <c r="E2">
-        <v>0.6466480024259604</v>
+        <v>0.6293982430367911</v>
       </c>
       <c r="F2">
-        <v>0.636393799121418</v>
+        <v>0.6122841308166216</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
